--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220415_180604.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220415_180604.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-15</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220415_180604.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220415_180604.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -833,6 +833,9 @@
   </si>
   <si>
     <t>mmm management</t>
+  </si>
+  <si>
+    <t>D-Nation</t>
   </si>
   <si>
     <t>JYP</t>
@@ -3766,6 +3769,12 @@
       <c r="F99" t="s">
         <v>230</v>
       </c>
+      <c r="G99" t="s">
+        <v>273</v>
+      </c>
+      <c r="H99" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
@@ -3807,10 +3816,10 @@
         <v>231</v>
       </c>
       <c r="G101" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H101" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220415_180604.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220415_180604.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -3795,6 +3795,12 @@
       <c r="F100" t="s">
         <v>108</v>
       </c>
+      <c r="G100" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220415_180604.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220415_180604.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -754,7 +754,7 @@
     <t>해외</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -803,9 +803,6 @@
   </si>
   <si>
     <t>마크툽컴퍼니</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>꿈의엔진</t>
@@ -1277,7 +1274,7 @@
         <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1355,7 +1352,7 @@
         <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1381,7 +1378,7 @@
         <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1407,7 +1404,7 @@
         <v>238</v>
       </c>
       <c r="H8" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1433,7 +1430,7 @@
         <v>236</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1485,7 +1482,7 @@
         <v>239</v>
       </c>
       <c r="H11" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1537,7 +1534,7 @@
         <v>240</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1563,7 +1560,7 @@
         <v>241</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1589,7 +1586,7 @@
         <v>242</v>
       </c>
       <c r="H15" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1615,7 +1612,7 @@
         <v>243</v>
       </c>
       <c r="H16" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1641,7 +1638,7 @@
         <v>244</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1667,7 +1664,7 @@
         <v>245</v>
       </c>
       <c r="H18" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1693,7 +1690,7 @@
         <v>246</v>
       </c>
       <c r="H19" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1719,7 +1716,7 @@
         <v>247</v>
       </c>
       <c r="H20" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1745,7 +1742,7 @@
         <v>248</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1797,7 +1794,7 @@
         <v>238</v>
       </c>
       <c r="H23" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1823,7 +1820,7 @@
         <v>233</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1901,7 +1898,7 @@
         <v>248</v>
       </c>
       <c r="H27" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2005,7 +2002,7 @@
         <v>250</v>
       </c>
       <c r="H31" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2031,7 +2028,7 @@
         <v>238</v>
       </c>
       <c r="H32" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2057,7 +2054,7 @@
         <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2083,7 +2080,7 @@
         <v>252</v>
       </c>
       <c r="H34" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2109,7 +2106,7 @@
         <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2135,7 +2132,7 @@
         <v>254</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2161,7 +2158,7 @@
         <v>245</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2187,7 +2184,7 @@
         <v>255</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2213,7 +2210,7 @@
         <v>238</v>
       </c>
       <c r="H39" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2239,7 +2236,7 @@
         <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2265,7 +2262,7 @@
         <v>248</v>
       </c>
       <c r="H41" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2317,7 +2314,7 @@
         <v>244</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2369,7 +2366,7 @@
         <v>238</v>
       </c>
       <c r="H45" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2395,7 +2392,7 @@
         <v>238</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2421,7 +2418,7 @@
         <v>257</v>
       </c>
       <c r="H47" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2473,7 +2470,7 @@
         <v>239</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2499,7 +2496,7 @@
         <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2525,7 +2522,7 @@
         <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2603,7 +2600,7 @@
         <v>258</v>
       </c>
       <c r="H54" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2655,7 +2652,7 @@
         <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2707,7 +2704,7 @@
         <v>259</v>
       </c>
       <c r="H58" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2733,7 +2730,7 @@
         <v>260</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2785,7 +2782,7 @@
         <v>248</v>
       </c>
       <c r="H61" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2837,7 +2834,7 @@
         <v>254</v>
       </c>
       <c r="H63" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2863,7 +2860,7 @@
         <v>248</v>
       </c>
       <c r="H64" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2889,7 +2886,7 @@
         <v>262</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2912,10 +2909,10 @@
         <v>208</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2941,7 +2938,7 @@
         <v>245</v>
       </c>
       <c r="H67" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2967,7 +2964,7 @@
         <v>248</v>
       </c>
       <c r="H68" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2993,7 +2990,7 @@
         <v>246</v>
       </c>
       <c r="H69" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3016,10 +3013,10 @@
         <v>210</v>
       </c>
       <c r="G70" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="H70" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3045,7 +3042,7 @@
         <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3068,10 +3065,10 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3097,7 +3094,7 @@
         <v>253</v>
       </c>
       <c r="H73" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3123,7 +3120,7 @@
         <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3146,10 +3143,10 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3175,7 +3172,7 @@
         <v>245</v>
       </c>
       <c r="H76" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3201,7 +3198,7 @@
         <v>251</v>
       </c>
       <c r="H77" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3253,7 +3250,7 @@
         <v>245</v>
       </c>
       <c r="H79" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3276,10 +3273,10 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H80" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3302,10 +3299,10 @@
         <v>217</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H81" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3328,10 +3325,10 @@
         <v>218</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H82" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3354,10 +3351,10 @@
         <v>219</v>
       </c>
       <c r="G83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H83" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3409,7 +3406,7 @@
         <v>248</v>
       </c>
       <c r="H85" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3458,10 +3455,10 @@
         <v>222</v>
       </c>
       <c r="G87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H87" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3536,10 +3533,10 @@
         <v>223</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H90" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3565,7 +3562,7 @@
         <v>245</v>
       </c>
       <c r="H91" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3591,7 +3588,7 @@
         <v>245</v>
       </c>
       <c r="H92" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3614,10 +3611,10 @@
         <v>225</v>
       </c>
       <c r="G93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H93" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3643,7 +3640,7 @@
         <v>246</v>
       </c>
       <c r="H94" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3669,7 +3666,7 @@
         <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3721,7 +3718,7 @@
         <v>238</v>
       </c>
       <c r="H97" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3747,7 +3744,7 @@
         <v>246</v>
       </c>
       <c r="H98" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3770,10 +3767,10 @@
         <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H99" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3796,10 +3793,10 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="H100" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3822,10 +3819,10 @@
         <v>231</v>
       </c>
       <c r="G101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
